--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value957.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value957.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.366170976130261</v>
+        <v>0.9870102405548096</v>
       </c>
       <c r="B1">
-        <v>2.19874879429749</v>
+        <v>-1</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.605362115644335</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.8716083129211053</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
